--- a/trend_results/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
+++ b/trend_results/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/trend_results/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
+++ b/trend_results/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>site name</t>
   </si>
@@ -97,10 +97,13 @@
     <t>RepSite</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,31 +570,31 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>0.0004433386798639</v>
+        <v>0.229945238224937</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.008130081300813</v>
       </c>
       <c r="H2">
-        <v>0.663865546218487</v>
+        <v>0.707317073170732</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K2">
-        <v>43.4821428571429</v>
+        <v>8.82622601279318</v>
       </c>
       <c r="L2">
-        <v>21.7400690461978</v>
+        <v>-10.9814874360707</v>
       </c>
       <c r="M2">
-        <v>71.93698928382069</v>
+        <v>29.6013049450549</v>
       </c>
       <c r="N2">
-        <v>20.1306216931217</v>
+        <v>3.78807983381681</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -606,19 +609,19 @@
         <v>5577382</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -638,13 +641,13 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>0.108890096395568</v>
+        <v>0.08899117411066421</v>
       </c>
       <c r="G3">
-        <v>0.00836820083682</v>
+        <v>0.00418410041841</v>
       </c>
       <c r="H3">
-        <v>0.615062761506276</v>
+        <v>0.631799163179916</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -653,16 +656,16 @@
         <v>216</v>
       </c>
       <c r="K3">
-        <v>5.22359735973597</v>
+        <v>5.34512195121951</v>
       </c>
       <c r="L3">
-        <v>-1.30563684658231</v>
+        <v>-0.6920269589506129</v>
       </c>
       <c r="M3">
-        <v>12.5956218514406</v>
+        <v>11.9829142930128</v>
       </c>
       <c r="N3">
-        <v>2.41833211098888</v>
+        <v>2.47459349593496</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -677,19 +680,90 @@
         <v>5577382</v>
       </c>
       <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>0.649413281690006</v>
+      </c>
+      <c r="G4">
+        <v>0.0089285714285714</v>
+      </c>
+      <c r="H4">
+        <v>0.5863095238095239</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>221.5</v>
+      </c>
+      <c r="K4">
+        <v>-0.793806030969845</v>
+      </c>
+      <c r="L4">
+        <v>-5.37926782134265</v>
+      </c>
+      <c r="M4">
+        <v>3.29233066516787</v>
+      </c>
+      <c r="N4">
+        <v>-0.35837744061844</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
         <v>29</v>
       </c>
-      <c r="T3" t="s">
+      <c r="Q4">
+        <v>1775652</v>
+      </c>
+      <c r="R4">
+        <v>5577382</v>
+      </c>
+      <c r="S4" t="s">
         <v>30</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T4" t="s">
         <v>31</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U4" t="s">
         <v>32</v>
       </c>
-      <c r="W3" t="s">
+      <c r="V4" t="s">
         <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
